--- a/input/relatorio/10800554000127.xlsx
+++ b/input/relatorio/10800554000127.xlsx
@@ -2116,7 +2116,7 @@
       <c r="E30" s="126" t="n"/>
       <c r="F30" s="127" t="n"/>
       <c r="G30" s="62" t="n">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="H30" s="125" t="n"/>
       <c r="I30" s="59" t="n">
